--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 3.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1719,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1833,12 +1833,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2471,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2547,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5289,12 +5289,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5631,12 +5631,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7079,12 +7079,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7345,12 +7345,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7421,12 +7421,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7539,12 +7539,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7767,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7843,12 +7843,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7881,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
